--- a/1_excel_Source/Department.xlsx
+++ b/1_excel_Source/Department.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faisa\OneDrive\Documents\Hospital_CAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\Repository\Hospital_my_work\PBI_Hospital_analysis_self\6_PBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6596CDE1-2C47-454E-B558-825154568B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{909D1EA1-E1DF-41A7-93EE-15062B0FC583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90F7F0BD-DE89-4433-B1CF-7611AB4BAB1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{90F7F0BD-DE89-4433-B1CF-7611AB4BAB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -279,6 +268,54 @@
   </si>
   <si>
     <t>1015</t>
+  </si>
+  <si>
+    <t>Focuses on diagnosing and treating heart and blood vessel disorders — think heart attacks, arrhythmias, and hypertension</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Deals with the nervous system: brain, spinal cord, and nerves. Covers conditions like epilepsy, stroke, and Parkinson’s disease.</t>
+  </si>
+  <si>
+    <t>Specializes in bones, joints, ligaments, and muscles. Common cases include fractures, arthritis, and joint replacements.</t>
+  </si>
+  <si>
+    <t>Cares for the female reproductive system — menstrual disorders, fertility, pregnancy, and menopause.</t>
+  </si>
+  <si>
+    <t>Manages health of infants, children, and adolescents — from vaccinations to developmental disorders.</t>
+  </si>
+  <si>
+    <t>Treats skin, hair, and nail conditions — acne, eczema, psoriasis, and skin infections.</t>
+  </si>
+  <si>
+    <t>Focuses on the digestive system — stomach, intestines, liver, and pancreas. Think ulcers, IBS, and hepatitis.</t>
+  </si>
+  <si>
+    <t>Covers eye health — vision problems, cataracts, glaucoma, and corrective surgeries.</t>
+  </si>
+  <si>
+    <t>Also called Otolaryngology. Manages sinus issues, hearing loss, throat infections, and voice disorders.</t>
+  </si>
+  <si>
+    <t>Deals with mental health — depression, anxiety, schizophrenia, and behavioral disorders.</t>
+  </si>
+  <si>
+    <t>Focuses on urinary tract and male reproductive system — kidney stones, UTIs, prostate issues.</t>
+  </si>
+  <si>
+    <t>Manages hormone-related conditions — diabetes, thyroid disorders, and metabolic syndromes.</t>
+  </si>
+  <si>
+    <t>Specializes in kidney function and diseases — chronic kidney disease, dialysis, and electrolyte imbalances.</t>
+  </si>
+  <si>
+    <t>Treats lung and respiratory conditions — asthma, COPD, pneumonia, and sleep apnea.</t>
+  </si>
+  <si>
+    <t>Dedicated to cancer diagnosis and treatment — chemotherapy, radiation, and tumor management.</t>
   </si>
 </sst>
 </file>
@@ -650,22 +687,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0634226B-9DC8-458C-AF1B-610DAAC1D7F2}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="9" max="9" width="22.7265625" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" customWidth="1"/>
+    <col min="10" max="11" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -684,8 +725,11 @@
       <c r="F1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -704,8 +748,11 @@
       <c r="F2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -724,8 +771,11 @@
       <c r="F3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -744,8 +794,11 @@
       <c r="F4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -764,8 +817,11 @@
       <c r="F5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -784,8 +840,11 @@
       <c r="F6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -804,8 +863,11 @@
       <c r="F7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -824,8 +886,11 @@
       <c r="F8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -844,8 +909,11 @@
       <c r="F9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -864,8 +932,11 @@
       <c r="F10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -884,8 +955,11 @@
       <c r="F11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -904,8 +978,11 @@
       <c r="F12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -924,8 +1001,11 @@
       <c r="F13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -944,8 +1024,11 @@
       <c r="F14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -964,8 +1047,11 @@
       <c r="F15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -983,6 +1069,9 @@
       </c>
       <c r="F16" t="s">
         <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
